--- a/Experiments/230619/buffers_mt_230619.xlsx
+++ b/Experiments/230619/buffers_mt_230619.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryancardiff/Documents/GitHub/WHISPR/Experiments/230619/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F54B981-C4AA-1642-B410-881DE0C19579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CAC0E15-0607-C449-AA8C-EC4D7D4E3464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40" yWindow="1200" windowWidth="29240" windowHeight="16280" xr2:uid="{967C839E-5874-3E47-BD0B-8FC21FE1D91D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>AMP</t>
   </si>
@@ -198,9 +198,6 @@
   </si>
   <si>
     <t>pyc_aa</t>
-  </si>
-  <si>
-    <t>x`</t>
   </si>
 </sst>
 </file>
@@ -590,9 +587,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CE59716-2039-E94A-B757-756570D8E32F}">
   <dimension ref="A1:AE25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X26" sqref="X26"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A13:Y15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -963,8 +960,8 @@
       <c r="V12">
         <v>30</v>
       </c>
-      <c r="AE12" t="s">
-        <v>54</v>
+      <c r="AE12">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
